--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67546.94153653871</v>
+        <v>-69985.41463628526</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>127.6068278246512</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>28.80063964078904</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>19.40878414870848</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>93.39161919268977</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>160.169847120579</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>217.6925460024581</v>
+        <v>361.7674730880244</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>14.46970232050016</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>52.48797850547313</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4.792004777349866</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>78.96122915361011</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>37.28717225616281</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819331</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>78.91051008678591</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>278.7019488598318</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>40.36264995190525</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>103.2319066432213</v>
       </c>
     </row>
     <row r="17">
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126612</v>
       </c>
       <c r="T19" t="n">
-        <v>91.89996056625201</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892407</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238289</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634833</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.33703994143047</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>13.74238375877706</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881274</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>130.5513683573768</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>70.38407275859089</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0997254264229</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701373</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703275</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788180381</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560511</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>27.02919805176204</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.033879558988</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C2" t="n">
-        <v>1605.033879558988</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.033879558988</v>
+        <v>920.7766538636577</v>
       </c>
       <c r="E2" t="n">
-        <v>1219.245626960743</v>
+        <v>534.9884012654134</v>
       </c>
       <c r="F2" t="n">
-        <v>808.259722171136</v>
+        <v>534.9884012654134</v>
       </c>
       <c r="G2" t="n">
-        <v>393.1872720161324</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>95.60367162489962</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3306.000989135728</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3306.000989135728</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3052.470512409564</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2721.407625065994</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2368.638969795879</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>1995.1732115348</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y2" t="n">
-        <v>1605.033879558988</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>742.724875630924</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>573.7886927030171</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>573.7886927030171</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>425.875599120624</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>425.875599120624</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>258.1727624953429</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4528,10 +4528,10 @@
         <v>1191.507005672471</v>
       </c>
       <c r="X4" t="n">
-        <v>1029.71928130825</v>
+        <v>963.5174547744541</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>742.724875630924</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.723851760223</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="C5" t="n">
-        <v>1380.761334819812</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="D5" t="n">
-        <v>1380.761334819812</v>
+        <v>1122.251160158767</v>
       </c>
       <c r="E5" t="n">
-        <v>994.9730822215672</v>
+        <v>736.462907560523</v>
       </c>
       <c r="F5" t="n">
-        <v>583.9871774319597</v>
+        <v>729.5174068113196</v>
       </c>
       <c r="G5" t="n">
         <v>364.0957168234162</v>
@@ -4568,7 +4568,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,7 +4583,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997115</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736035</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.723851760223</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>774.7644039315074</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
         <v>624.6477645191717</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1912.678687158694</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1720.99280298552</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1720.99280298552</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U7" t="n">
-        <v>1431.889936111164</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="V7" t="n">
-        <v>1177.205447905277</v>
+        <v>1562.679315309008</v>
       </c>
       <c r="W7" t="n">
-        <v>1177.205447905277</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X7" t="n">
-        <v>1177.205447905277</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y7" t="n">
-        <v>956.4128687617472</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,13 +4814,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4847,7 +4847,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1618.75081059268</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1799.80028048626</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1510.697413611904</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1256.012925406017</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1256.012925406017</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1028.023374507999</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>1028.023374507999</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.35495954132</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885518</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679631</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.17807464267</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744653</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011227</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,7 +5279,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061504</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616111</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.043492616111</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179095</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>593.6115863900026</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4949469776668</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>443.4949469776668</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,28 +5528,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2411.187623003224</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238952</v>
+        <v>2191.586158026165</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1902.510931370363</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5762,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616111</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5975,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797193</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2125.967522499092</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.207807637403</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.6673633290469</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>699.73118040114</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2111.482263955954</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1822.407037300152</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V28" t="n">
-        <v>1567.722549094265</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W28" t="n">
-        <v>1278.305379057304</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X28" t="n">
-        <v>1050.315828159287</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.315828159287</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,25 +6449,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6479,22 +6479,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797193</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797193</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121652</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.043492616111</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121652</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121652</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121652</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,16 +7072,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,28 +7093,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2437.724555511392</v>
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7190,34 +7190,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468473</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L39" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7427,31 +7427,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7713,40 +7713,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>283.3148978288022</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>12.77629013213691</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>246.4592500929263</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>138.4949402405024</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>7.821049476759242</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.513749910243533e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>105.058398071026</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>115.3527467088735</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>145.6085800303785</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5054897610363</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>203.6630665685112</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>34.972769934892</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24415,16 +24415,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>147.0213775686974</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>66.30572490086541</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>36.51445555167288</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194126</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5862749664503</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1021172.72673598</v>
+        <v>1021172.726735981</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1103066.67681178</v>
+        <v>1103066.676811779</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794691</v>
+        <v>298593.7657794695</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760027</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="G2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="H2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="I2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="J2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="K2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="L2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="M2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="N2" t="n">
+        <v>322858.6398760022</v>
+      </c>
+      <c r="O2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="P2" t="n">
         <v>322858.6398760026</v>
-      </c>
-      <c r="I2" t="n">
-        <v>322858.6398760026</v>
-      </c>
-      <c r="J2" t="n">
-        <v>322858.6398760026</v>
-      </c>
-      <c r="K2" t="n">
-        <v>322858.6398760026</v>
-      </c>
-      <c r="L2" t="n">
-        <v>322858.6398760023</v>
-      </c>
-      <c r="M2" t="n">
-        <v>322858.6398760023</v>
-      </c>
-      <c r="N2" t="n">
-        <v>322858.6398760023</v>
-      </c>
-      <c r="O2" t="n">
-        <v>322858.6398760023</v>
-      </c>
-      <c r="P2" t="n">
-        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50848.90313554082</v>
+        <v>50848.90313554118</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="D4" t="n">
         <v>93403.78684820636</v>
@@ -26433,16 +26433,16 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685493</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685494</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26451,10 +26451,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685515</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685516</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26476,25 +26476,25 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1188933.823645058</v>
+        <v>-1189120.217033597</v>
       </c>
       <c r="C6" t="n">
-        <v>127078.980536114</v>
+        <v>127078.9805361139</v>
       </c>
       <c r="D6" t="n">
-        <v>127078.9805361134</v>
+        <v>127078.9805361137</v>
       </c>
       <c r="E6" t="n">
-        <v>-117893.1038321155</v>
+        <v>-117927.8417575507</v>
       </c>
       <c r="F6" t="n">
-        <v>207519.3579752404</v>
+        <v>207484.6200498046</v>
       </c>
       <c r="G6" t="n">
-        <v>207519.3579752402</v>
+        <v>207484.6200498045</v>
       </c>
       <c r="H6" t="n">
-        <v>207519.3579752405</v>
+        <v>207484.6200498045</v>
       </c>
       <c r="I6" t="n">
-        <v>207519.3579752404</v>
+        <v>207484.6200498044</v>
       </c>
       <c r="J6" t="n">
-        <v>-10011.84442203699</v>
+        <v>-10046.58234747298</v>
       </c>
       <c r="K6" t="n">
-        <v>207519.3579752405</v>
+        <v>207484.6200498045</v>
       </c>
       <c r="L6" t="n">
-        <v>207519.3579752403</v>
+        <v>207484.6200498045</v>
       </c>
       <c r="M6" t="n">
-        <v>122464.3300397282</v>
+        <v>122429.5921142928</v>
       </c>
       <c r="N6" t="n">
-        <v>207519.3579752402</v>
+        <v>207484.6200498044</v>
       </c>
       <c r="O6" t="n">
-        <v>207519.3579752402</v>
+        <v>207484.6200498045</v>
       </c>
       <c r="P6" t="n">
-        <v>207519.3579752403</v>
+        <v>207484.6200498044</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26796,25 +26796,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483759</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>89.77897763946736</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>123.2718505855428</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>51.36339572163101</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>65.5398082684581</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>193.2291796509954</v>
+        <v>49.15425256542909</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>74.46245034954718</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>199.6496648183549</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>349.8910368433331</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>307.2767095024435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>182.2617770200064</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28618,13 +28618,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-3.348081657766396e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28776,10 +28776,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.477335250954835e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-2.495430374854276e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>2.476099325576797e-12</v>
       </c>
     </row>
     <row r="42">
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31838,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>307.4654529393625</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,19 +32315,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319844</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319844</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460043</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34399,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,34 +34445,34 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34539,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394538</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>173.4910455250323</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875399</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572999015</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875399</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243176</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394542</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38184,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
